--- a/biology/Botanique/Hypericum_humifusum/Hypericum_humifusum.xlsx
+++ b/biology/Botanique/Hypericum_humifusum/Hypericum_humifusum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Millepertuis couché, ou Millepertuis rampant (Hypericum humifusum), est une espèce de plantes à fleurs de la famille des Hypéricacées selon la classification phylogénétique APG III (2009)[1] ou des Clusiacées selon la classification classique de Cronquist (1981)[2], trouvée en Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Millepertuis couché, ou Millepertuis rampant (Hypericum humifusum), est une espèce de plantes à fleurs de la famille des Hypéricacées selon la classification phylogénétique APG III (2009) ou des Clusiacées selon la classification classique de Cronquist (1981), trouvée en Europe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en zone tempérée du niveau de la mer jusqu'à 1 400 m d'altitude. En France, elle est commune à assez commune et relativement cosmopolite.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses et friches pionnières.
 </t>
@@ -573,12 +589,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est une plante herbacée annuelle, bisannuelle ou vivace, hermaphrodite.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée annuelle, bisannuelle ou vivace, hermaphrodite.
 Cette plante, plus petite que beaucoup de millepertuis, a une taille moyenne (5-20 cm). Elle se distingue des autres millepertuis par une préférence pour les sols acides et ensoleillés ; une tige cylindrique ramifiée grêle et étalée parallèlement au sol, munie de deux lignes saillantes. Cette tige est garnie de feuilles opposées, sessiles, à limbe oblong à lancéolé, muni de glandes translucides et bordé de quelques glandes marginales noires.
-Caractéristiques
-Organes reproducteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypericum_humifusum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypericum_humifusum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs :
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-septembre
 Inflorescence : cyme bipare, pauciflore
